--- a/data/trans_dic/P42C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Habitat-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1408260880918811</v>
+        <v>0.1376099096116478</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07229088584496482</v>
+        <v>0.07136816662150693</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1052030797261776</v>
+        <v>0.1025252898098429</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2078917416562273</v>
+        <v>0.211151795192706</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1288711549797092</v>
+        <v>0.1306311658066625</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1606447596140454</v>
+        <v>0.1606182707705774</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2406568545881174</v>
+        <v>0.2457484733854185</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1158059338615062</v>
+        <v>0.1163722715470656</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1866201041082205</v>
+        <v>0.1866978658958665</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3097765809029547</v>
+        <v>0.3138187332901456</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1673243165096517</v>
+        <v>0.164888530500916</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.24735613833405</v>
+        <v>0.2460569622447958</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
         <v>0.1616284356176407</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3194788471847807</v>
+        <v>0.3194788471847806</v>
       </c>
     </row>
     <row r="11">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.216726193925298</v>
+        <v>0.2162739652958672</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.131849844984173</v>
+        <v>0.1354342078788449</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2771809503240475</v>
+        <v>0.2770668448797237</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2953444898783643</v>
+        <v>0.2925386802622362</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1899688820858002</v>
+        <v>0.1973831517631014</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3595471416639108</v>
+        <v>0.3607524425668205</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2033564927451148</v>
+        <v>0.2072136370604237</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1733580377287019</v>
+        <v>0.1723343995725327</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.256162307849279</v>
+        <v>0.2548360700531727</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2682530144979611</v>
+        <v>0.2679546772362756</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2322960497361015</v>
+        <v>0.2320701313967347</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3169057144466359</v>
+        <v>0.3158251185080103</v>
       </c>
     </row>
     <row r="16">
@@ -810,7 +810,7 @@
         <v>0.1546882204377477</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2430167787613406</v>
+        <v>0.2430167787613405</v>
       </c>
     </row>
     <row r="17">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2226620354067518</v>
+        <v>0.2218427587870181</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1413925669085788</v>
+        <v>0.1415163896537507</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2272862255232194</v>
+        <v>0.2256968752113514</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2601567587401805</v>
+        <v>0.2558787532653669</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1698894852450107</v>
+        <v>0.1695969681771633</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2596637599534641</v>
+        <v>0.2586387981975807</v>
       </c>
     </row>
     <row r="19">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>73338</v>
+        <v>71664</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35717</v>
+        <v>35261</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>40884</v>
+        <v>39844</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>108264</v>
+        <v>109962</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>63671</v>
+        <v>64541</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>62430</v>
+        <v>62420</v>
       </c>
     </row>
     <row r="8">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>186885</v>
+        <v>190839</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>97692</v>
+        <v>98170</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>113693</v>
+        <v>113740</v>
       </c>
     </row>
     <row r="11">
@@ -1068,13 +1068,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>240561</v>
+        <v>243700</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>141152</v>
+        <v>139097</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>150694</v>
+        <v>149903</v>
       </c>
     </row>
     <row r="12">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>138090</v>
+        <v>137802</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>79478</v>
+        <v>81639</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>127844</v>
+        <v>127792</v>
       </c>
     </row>
     <row r="15">
@@ -1140,13 +1140,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>188183</v>
+        <v>186395</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>114512</v>
+        <v>118981</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>165834</v>
+        <v>166390</v>
       </c>
     </row>
     <row r="16">
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>163811</v>
+        <v>166918</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>144981</v>
+        <v>144125</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>166806</v>
+        <v>165942</v>
       </c>
     </row>
     <row r="19">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>216087</v>
+        <v>215847</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>194272</v>
+        <v>194083</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>206360</v>
+        <v>205656</v>
       </c>
     </row>
     <row r="20">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>610102</v>
+        <v>607857</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>392612</v>
+        <v>392956</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>479629</v>
+        <v>476275</v>
       </c>
     </row>
     <row r="23">
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>712838</v>
+        <v>701116</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>471741</v>
+        <v>470929</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>547954</v>
+        <v>545791</v>
       </c>
     </row>
     <row r="24">
